--- a/biology/Zoologie/Aedes/Aedes.xlsx
+++ b/biology/Zoologie/Aedes/Aedes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aedes  est un genre cosmopolite de moustiques (Culicidae) de la sous-famille des Culicinae et de la tribu des Aedini. 
-D’un point de vue épidémiologique et écoépidémiologique, le genre Aedes, en particulier le sous-genre Stegomyia, est extrêmement important car certaines de ses espèces disposent de stratégies efficaces de dispersion[1],[2] et peuvent être vectrices d’arboviroses humaines, telles que la dengue, le chikungunya, le zika, ou encore la fièvre jaune (non exhaustif).
+D’un point de vue épidémiologique et écoépidémiologique, le genre Aedes, en particulier le sous-genre Stegomyia, est extrêmement important car certaines de ses espèces disposent de stratégies efficaces de dispersion, et peuvent être vectrices d’arboviroses humaines, telles que la dengue, le chikungunya, le zika, ou encore la fièvre jaune (non exhaustif).
 Ce genre regroupe actuellement 263 espèces en 21 sous-genres (Harbach, 2007) ce qui en fait, en termes d’abondance d’espèces, le 5e genre de la famille (après les Culex (763), Ochlerotatus (550), Anopheles (455) et Uranotaenia (266 espèces)).
 Aedes vient du grec signifiant « déplaisant », du fait de la forte gêne qu'entraîne la piqûre de ces moustiques nuisibles.
 </t>
@@ -514,7 +526,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre se distingue par les griffes dentées des pattes antérieures de la femelle, un abdomen pointu présentant rarement des marques métalliques argentées et un paratergite étroit et écailleux.
 </t>
@@ -545,11 +559,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, Reinert divisa, sur la base des genitalia mâles et femelles, les 969 espèces du prolifique genre Aedes qu’il répartit en 2 genres : Aedes  conservant 23 sous-genres et 263 espèces et le genre Ochlerotatus Lynch Arribalzaga, 1891 (anciennement sous-genre du genre Aedes) réunifiant quant à lui 21 sous-genres et 550 espèces. Reinert et collaborateurs (2004) ont proposé de diviser la tribu des Aedini en 63 genres au lieu de 12, mais ils furent peu suivis.
-Liste des sous-genres au niveau mondial
-Aedes (Aedes) Meigen, 1818 (10 espèces : régions néarctique (A. cinereus) et paléarctique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aedes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aedes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres au niveau mondial</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aedes (Aedes) Meigen, 1818 (10 espèces : régions néarctique (A. cinereus) et paléarctique)
 Aedes (Aedimorphus) Theobald (région afrotropicale) (81 espèces)
 Aedes (Alanstonea)  Mattingly (2 espèces)
 Aedes (Albuginosus) Reinert, 1986	(9 espèces : région afrotropicale exclusivement)
@@ -577,48 +628,122 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Aedes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aedes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Listes d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèces rencontrées en Europe[4]
-Aedes (Aedes) cinereus Meigen 1818
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe[4]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aedes (Aedes) cinereus Meigen 1818
 Aedes (Aedes) esoensis rossicus Dolbeskin, Goritzkaja &amp; Mitrofanova 1930
 Aedes (Aedes) geminus Peus 1970
 Aedes (Aedimorphus) vexans (Meigen 1830)
 Aedes (Fredwardsius) vittatus (Bigot 1861)
 Aedes (Stegomyia) albopictus (Skuse 1894) (espèce exotique invasive, originaire d'Asie du Sud-Est)
-Aedes (Stegomyia) cretinus Edwards 1921
-Espèces rencontrées en Amérique du Nord
-Aedes (Aedimorphus) vexans (Meigen 1830)
-Espèce cosmopolite (présente dans 73 pays). Plus actif à l'aube. Peut transmettre la maladie de Lyme et la fièvre du Nil occidental[5].
+Aedes (Stegomyia) cretinus Edwards 1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aedes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aedes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Listes d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aedes (Aedimorphus) vexans (Meigen 1830)
+Espèce cosmopolite (présente dans 73 pays). Plus actif à l'aube. Peut transmettre la maladie de Lyme et la fièvre du Nil occidental.
 Aedes (Aedes) cinereus(Meigen 1818)
 Aedes (Stegomyia) aegypti (Linnaeus 1762) (espèce exotique invasive, originaire d'Afrique)
 Aedes (Stegomyia) albopictus (Skuse 1894) (espèce exotique invasive, originaire d'Asie du Sud-Est)
-Aedes (Abraedes) papago Zavortink, 1970
-Liste d'espèces Selon ITIS
+Aedes (Abraedes) papago Zavortink, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aedes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aedes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Listes d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aedes aboriginis Dyar, 1917
 Aedes abserratus (Felt &amp; Young, 1904)
 Aedes aegypti (Linnaeus, 1762)
